--- a/medicine/Handicap/Handico/Handico.xlsx
+++ b/medicine/Handicap/Handico/Handico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Handico est une série d'animation, réalisée par Pauline Brunner et Maxime Gridelet et diffusée sur Lumni FR, plateforme éducative de France Télévisions. 
 La série met en scène Will (héros de la série 2D animée Will, elle-même adaptée de la bande dessinée Schumi de Zidrou et E411), publiée par les Editions Paquet, et plonge le jeune téléspectateur dans un univers en stop-motion pour mieux expliquer ce que sont les handicaps.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Will, 9 ans, a la vie de tous les enfants de son âge. A une différence près : il est en fauteuil roulant. Dans Handico, Will, héros d’une série éponyme, répond aux questions que se posent les enfants sur les handicaps.  
 Dans la saison 1, il explique simplement, de manière imagée et poétique, l’autisme, la paraplégie, la trisomie, la malvoyance… Autant de mots et de maux auxquels les enfants peuvent être confrontés, et que la série leur permet de mieux comprendre.     
@@ -546,7 +560,9 @@
           <t>Crédit générique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Pauline Brunner, Maxime Gridelet
 Bible littéraire : Virginie Boda, Jérôme Nougarolis
@@ -597,8 +613,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Première saison (2019)
-La Para-Tétraplégie
+          <t>Première saison (2019)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Para-Tétraplégie
 L'Autisme
 La Malvoyance et la Non-Voyance
 La Surdité
@@ -609,9 +630,43 @@
 La Myopathie
 La Maladie des Os de Verre
 La Mucoviscidose
-Les Phobies
-Deuxième saison (2020)
-Le Diabète
+Les Phobies</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Handico</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handico</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2020)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Diabète
 L'Epilepsie
 La Boulimie et l'Anorexie
 Les TDAH
@@ -626,37 +681,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Handico</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Handico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Personnages</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Will (VF : Sauvane Delanoë) : Paraplégique de naissance, Will est handicapé des membres inférieurs et en fauteuil. Cela ne l’empêche pas de vivre à 100 à l’heure. Malin, débrouillard, hyperactif, imaginatif, c’est un tchatcheur né. Curieux, passionné, touche-à-tout, il veut sans cesse comprendre, adore essayer de nouvelles choses et partager ce qu’il découvre. Il y a tellement de choses intéressantes à découvrir...
-La Main : Animée en stop-motion, La Main dessine, colle, froisse, coupe… Tout ce qui peut permettre de mieux comprendre le handicap raconté par Will.</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -678,10 +702,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nominations et Récompenses</t>
+          <t>Personnages</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Will (VF : Sauvane Delanoë) : Paraplégique de naissance, Will est handicapé des membres inférieurs et en fauteuil. Cela ne l’empêche pas de vivre à 100 à l’heure. Malin, débrouillard, hyperactif, imaginatif, c’est un tchatcheur né. Curieux, passionné, touche-à-tout, il veut sans cesse comprendre, adore essayer de nouvelles choses et partager ce qu’il découvre. Il y a tellement de choses intéressantes à découvrir...
+La Main : Animée en stop-motion, La Main dessine, colle, froisse, coupe… Tout ce qui peut permettre de mieux comprendre le handicap raconté par Will.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,10 +735,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Nominations et Récompenses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Handico</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handico</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Projets Parallèles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Will
 Diffusion : France 4, Youtube.
